--- a/pred_ohlcv/54_21/2019-10-26 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 EOS ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>27085.30724371</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>30582.24444371</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>28538.27764371</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>29374.96618498</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>41712.31964371</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>41712.31964371</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>41712.31964371</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>41712.31964371</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>49350.74764371</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>56137.43974371</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>56137.43974371</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>53789.46444371</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>51920.33794371</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>52479.58644371</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>45858.32314371</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>50186.76134371</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>50186.76134371</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>50186.76134371</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>50869.07214371</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>50869.17214371</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>50869.27214371</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>49756.36994371</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>49956.56994371</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>49067.70984371</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>49202.99624371</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>48787.49061158</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>49815.82831158</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>48625.40951158</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>48625.40951158</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>48180.02031158</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>49955.42341158001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>54126.00641158001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>49365.34831158</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>49311.53531158</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>49507.16191158001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>48402.80231158</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>48904.23211158</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>56496.94159469</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>55471.65489469</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>55651.65489469</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>86322.09089469</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>413073.1813491101</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>467707.3996689801</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>409427.1624689801</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>377845.2209689801</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>398069.8939689801</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>383338.4680689801</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>362102.8235689801</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>395311.7152689801</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>373814.0122689801</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>373814.0122689801</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>393323.7900689801</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>463357.31006898</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>435930.13076898</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>447614.5344232401</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>495720.9572789001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>550246.7705259101</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>642572.8974259101</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>612273.0956259101</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>638374.7118752301</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>619978.95383609</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>588866.13263609</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>554248.3885122801</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>583997.9224312201</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>599221.3171639501</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>624809.4157639501</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>615333.4896639501</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>623350.70906395</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>613266.56126395</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>607703.69406395</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>616373.9380639499</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>615672.23676395</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>629549.1387639502</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>723327.8652972804</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>748218.7271972804</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>786305.3096972804</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>774426.6844972804</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>784124.9229972804</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>798675.8392639504</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>768608.7227639504</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>785125.5419639504</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>815783.2971200004</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>875825.6062830803</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>949685.7219206603</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>973817.3506268003</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>931123.6671329404</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>888183.6785329403</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>888183.6785329403</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>870337.1609046003</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>876911.1750046003</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>899417.4619046003</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>895100.5126046003</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>882925.8690046003</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>866124.3005046003</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>857611.4511046003</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>815426.4733046003</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>974277.1964871698</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>978599.8682871698</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>978059.4959871698</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>974306.9554871698</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>975856.0343871698</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>978325.3299434597</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>976879.2855512397</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>976879.2855512397</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>976879.2855512397</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>971807.7643512398</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>971741.0277512398</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1020048.7083893</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1001162.58077473</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1001162.58077473</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1000172.30367473</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1011109.655274731</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1023837.298974731</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>1034040.11177473</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>1046001.72467473</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>1055980.23362759</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>1066006.30574898</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>1077106.99244898</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>1065697.87296757</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>1070919.82534107</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1113710.34544107</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1157687.73603598</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1124072.03733598</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1101322.71003598</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1110678.61033598</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1081468.37563598</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1095873.27273598</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1087927.53199735</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1079101.77471692</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1065275.80321692</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1049703.50191692</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1052630.66861692</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1049724.57761692</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1060593.11141692</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1065626.57331692</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1063083.74791692</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1063083.74791692</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1064032.37901692</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1051305.09431692</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1054319.70219674</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1069447.01399674</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1047689.42439674</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1065676.504193461</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1102728.503998551</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1156595.711736221</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>1479055.7713272</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>1425085.3971086</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1457636.0378086</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>1413551.61113133</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>1377338.97035577</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>1406115.35361917</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>1375733.99837385</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>1396060.67957385</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1363971.152373851</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1385431.853473851</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1423247.85321524</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>1389079.05331524</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>1389079.05331524</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>1392619.808615241</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>1388076.56331524</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1413660.18444257</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1382303.10436935</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>1361905.440906821</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>1335186.354406821</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>1322466.004906821</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1340975.244283321</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1323154.388783321</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>1315093.91757673</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1277404.77817673</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1316107.591976731</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>1270539.645176731</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>1193109.301474395</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>1195938.650074395</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>1195198.559274395</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>1196288.740274395</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>1195736.869774395</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>1200150.504974395</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>1201530.327774395</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>1203112.503574395</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 EOS ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>27085.30724371</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>48625.40951158</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>48625.40951158</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>48180.02031158</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>49955.42341158001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>54126.00641158001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>49365.34831158</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>49311.53531158</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>49507.16191158001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>48402.80231158</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>48904.23211158</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>56496.94159469</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>55471.65489469</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>55651.65489469</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>86322.09089469</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>413073.1813491101</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>467707.3996689801</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>409427.1624689801</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>377845.2209689801</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>398069.8939689801</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>383338.4680689801</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>362102.8235689801</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>395311.7152689801</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>373814.0122689801</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>373814.0122689801</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>393323.7900689801</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>463357.31006898</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>435930.13076898</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>447614.5344232401</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>495720.9572789001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>550246.7705259101</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>642572.8974259101</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>612273.0956259101</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>638374.7118752301</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>619978.95383609</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>588866.13263609</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>554248.3885122801</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>583997.9224312201</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>599221.3171639501</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>624809.4157639501</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>615333.4896639501</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>623350.70906395</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>613266.56126395</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>607703.69406395</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>616373.9380639499</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>615672.23676395</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>629549.1387639502</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>723327.8652972804</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>748218.7271972804</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>786305.3096972804</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>774426.6844972804</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>784124.9229972804</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>798675.8392639504</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>768608.7227639504</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>785125.5419639504</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>815783.2971200004</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>875825.6062830803</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>949685.7219206603</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>973817.3506268003</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>931123.6671329404</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>888183.6785329403</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>888183.6785329403</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>870337.1609046003</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>876911.1750046003</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>899417.4619046003</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>895100.5126046003</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>882925.8690046003</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>866124.3005046003</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>857611.4511046003</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>815426.4733046003</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>974277.1964871698</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>978599.8682871698</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>978059.4959871698</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>974306.9554871698</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>975856.0343871698</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>978325.3299434597</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>976879.2855512397</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>976879.2855512397</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>976879.2855512397</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>971807.7643512398</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>971741.0277512398</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1020048.7083893</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1001162.58077473</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1001162.58077473</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1000172.30367473</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1011109.655274731</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1023837.298974731</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>1034040.11177473</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>1046001.72467473</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>1055980.23362759</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>1066006.30574898</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>1077106.99244898</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>1065697.87296757</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>1070919.82534107</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1113710.34544107</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1157687.73603598</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1124072.03733598</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1101322.71003598</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1110678.61033598</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1081468.37563598</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1095873.27273598</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1087927.53199735</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1079101.77471692</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1065275.80321692</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1049703.50191692</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1052630.66861692</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1049724.57761692</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1060593.11141692</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1065626.57331692</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1063083.74791692</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1063083.74791692</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1064032.37901692</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1051305.09431692</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1054319.70219674</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1069447.01399674</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1047689.42439674</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1065676.504193461</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1102728.503998551</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1156595.711736221</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>1308581.96361978</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>1404619.3936677</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>1479055.7713272</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>1425085.3971086</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1457636.0378086</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>1413551.61113133</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>1377338.97035577</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>1406115.35361917</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>1375733.99837385</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>1396060.67957385</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1363971.152373851</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1385431.853473851</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1423247.85321524</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>1389079.05331524</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>1389079.05331524</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>1392619.808615241</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>1388076.56331524</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>1400408.72521524</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>1426118.55635003</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>1413660.18444257</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1413660.18444257</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1382303.10436935</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>1361905.440906821</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>1335186.354406821</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>1322466.004906821</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1340975.244283321</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1323154.388783321</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>1315093.91757673</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1277404.77817673</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1316107.591976731</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1325645.998876731</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1307714.796277221</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>1287591.354976731</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>1270539.645176731</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>1294145.321484731</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>1276924.67118473</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>1280660.77688473</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1271415.9023582</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>1193109.301474395</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>1195938.650074395</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>1195198.559274395</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>1196288.740274395</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>1195736.869774395</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>1200150.504974395</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>1201530.327774395</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>1203112.503574395</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
